--- a/scripts/collection/data/ほぼ揃い(50冊以上)源氏物語_NIJLrev.xlsx
+++ b/scripts/collection/data/ほぼ揃い(50冊以上)源氏物語_NIJLrev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/d_utda/genji/scripts/collection/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F152FBD3-2A21-D54E-B0FD-950AFD682A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD4AD6D-5F8A-4F4B-AA87-88C29A3FFF64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3153,7 +3153,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -3162,7 +3162,8 @@
     <col min="2" max="3" width="6.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="24" style="3" customWidth="1"/>
-    <col min="6" max="7" width="25.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="99.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
